--- a/UZ/2025/03,25/13,03,25 ПОКОМ КИ Ташкент/дв 13,03,25 тшрсч пок ки НС от Лыгина.xlsx
+++ b/UZ/2025/03,25/13,03,25 ПОКОМ КИ Ташкент/дв 13,03,25 тшрсч пок ки НС от Лыгина.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\13,03,25 ПОКОМ КИ Ташкент\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\UZ\2025\03,25\13,03,25 ПОКОМ КИ Ташкент\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B99238A0-60C6-4704-B237-80773DF01E65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83FC9C21-F371-40C2-A5B7-3E564BB50878}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$3:$Z$74</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -414,7 +414,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -458,6 +458,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,7 +565,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -586,6 +592,7 @@
     <xf numFmtId="164" fontId="1" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="4" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Arial10px" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -895,7 +902,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AF11" sqref="AF11"/>
+      <selection pane="bottomRight" activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3770,7 +3777,7 @@
       <c r="AY31" s="1"/>
     </row>
     <row r="32" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="26" t="s">
         <v>58</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -3960,7 +3967,7 @@
       <c r="AY33" s="1"/>
     </row>
     <row r="34" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="26" t="s">
         <v>60</v>
       </c>
       <c r="B34" s="1" t="s">
